--- a/linreg/rifreg2bw_coefs_1_blk0.xlsx
+++ b/linreg/rifreg2bw_coefs_1_blk0.xlsx
@@ -153,13 +153,13 @@
         <v>0.20107668220192632</v>
       </c>
       <c r="C2">
-        <v>0.0037131845982819587</v>
+        <v>0.0043348856584402963</v>
       </c>
       <c r="D2">
-        <v>0.19379894295791264</v>
+        <v>0.19258042605313697</v>
       </c>
       <c r="E2">
-        <v>0.20835442144593999</v>
+        <v>0.20957293835071567</v>
       </c>
     </row>
     <row r="3">
@@ -170,13 +170,13 @@
         <v>0.070928222487536594</v>
       </c>
       <c r="C3">
-        <v>0.0021414579018245498</v>
+        <v>0.0021986794029192937</v>
       </c>
       <c r="D3">
-        <v>0.066731021912030494</v>
+        <v>0.066618869290621704</v>
       </c>
       <c r="E3">
-        <v>0.075125423063042693</v>
+        <v>0.075237575684451483</v>
       </c>
     </row>
     <row r="4">
@@ -187,13 +187,13 @@
         <v>0.33610261394684621</v>
       </c>
       <c r="C4">
-        <v>0.0036556896692614988</v>
+        <v>0.0049363420186066039</v>
       </c>
       <c r="D4">
-        <v>0.32893756317554074</v>
+        <v>0.3264275199460499</v>
       </c>
       <c r="E4">
-        <v>0.34326766471815168</v>
+        <v>0.34577770794764251</v>
       </c>
     </row>
     <row r="5">
@@ -204,13 +204,13 @@
         <v>0.1676282176035101</v>
       </c>
       <c r="C5">
-        <v>0.0033695162941497075</v>
+        <v>0.0033877581710178373</v>
       </c>
       <c r="D5">
-        <v>0.16102405521631924</v>
+        <v>0.16098830162245967</v>
       </c>
       <c r="E5">
-        <v>0.17423237999070096</v>
+        <v>0.17426813358456053</v>
       </c>
     </row>
     <row r="6">
@@ -221,13 +221,13 @@
         <v>0.36969729876191398</v>
       </c>
       <c r="C6">
-        <v>0.0034344785561442668</v>
+        <v>0.0045618555684474229</v>
       </c>
       <c r="D6">
-        <v>0.36296581566184416</v>
+        <v>0.360756187859059</v>
       </c>
       <c r="E6">
-        <v>0.37642878186198381</v>
+        <v>0.37863840966476897</v>
       </c>
     </row>
     <row r="7">
@@ -238,13 +238,13 @@
         <v>0.18465038509049722</v>
       </c>
       <c r="C7">
-        <v>0.0031089130590785962</v>
+        <v>0.0037533146684885447</v>
       </c>
       <c r="D7">
-        <v>0.17855699811817083</v>
+        <v>0.17729398808955057</v>
       </c>
       <c r="E7">
-        <v>0.19074377206282361</v>
+        <v>0.19200678209144387</v>
       </c>
     </row>
     <row r="8">
@@ -255,13 +255,13 @@
         <v>0.37397725636225471</v>
       </c>
       <c r="C8">
-        <v>0.0034347852500477088</v>
+        <v>0.0044310348818369615</v>
       </c>
       <c r="D8">
-        <v>0.36724517215060587</v>
+        <v>0.36529255039152031</v>
       </c>
       <c r="E8">
-        <v>0.38070934057390354</v>
+        <v>0.3826619623329891</v>
       </c>
     </row>
     <row r="9">
@@ -272,13 +272,13 @@
         <v>0.23959605513706111</v>
       </c>
       <c r="C9">
-        <v>0.0035577626274862226</v>
+        <v>0.0036805931510827897</v>
       </c>
       <c r="D9">
-        <v>0.23262293493942543</v>
+        <v>0.23238219037755944</v>
       </c>
       <c r="E9">
-        <v>0.2465691753346968</v>
+        <v>0.24680991989656278</v>
       </c>
     </row>
     <row r="10">
@@ -289,13 +289,13 @@
         <v>0.30198736368705159</v>
       </c>
       <c r="C10">
-        <v>0.0031249540198717948</v>
+        <v>0.0043748068157648829</v>
       </c>
       <c r="D10">
-        <v>0.29586254012813618</v>
+        <v>0.29341286317264087</v>
       </c>
       <c r="E10">
-        <v>0.30811218724596701</v>
+        <v>0.31056186420146231</v>
       </c>
     </row>
     <row r="11">
@@ -306,13 +306,13 @@
         <v>0.25240712394451859</v>
       </c>
       <c r="C11">
-        <v>0.0036916934466742594</v>
+        <v>0.0039641853786518697</v>
       </c>
       <c r="D11">
-        <v>0.24517150290066264</v>
+        <v>0.24463742595581925</v>
       </c>
       <c r="E11">
-        <v>0.25964274498837453</v>
+        <v>0.26017682193321789</v>
       </c>
     </row>
     <row r="12">
@@ -323,13 +323,13 @@
         <v>0.24145511365998151</v>
       </c>
       <c r="C12">
-        <v>0.0031278474285110105</v>
+        <v>0.0031518324571125438</v>
       </c>
       <c r="D12">
-        <v>0.23532461910005731</v>
+        <v>0.23527760910653236</v>
       </c>
       <c r="E12">
-        <v>0.24758560821990572</v>
+        <v>0.24763261821343066</v>
       </c>
     </row>
     <row r="13">
@@ -340,13 +340,13 @@
         <v>0.2583962313472159</v>
       </c>
       <c r="C13">
-        <v>0.0040030499825541221</v>
+        <v>0.0044777253465341782</v>
       </c>
       <c r="D13">
-        <v>0.25055035976774631</v>
+        <v>0.24962000866946965</v>
       </c>
       <c r="E13">
-        <v>0.26624210292668549</v>
+        <v>0.26717245402496215</v>
       </c>
     </row>
     <row r="14">
@@ -357,13 +357,13 @@
         <v>0.14817318069439162</v>
       </c>
       <c r="C14">
-        <v>0.0030593451148901722</v>
+        <v>0.0040447064626449912</v>
       </c>
       <c r="D14">
-        <v>0.1421769487769374</v>
+        <v>0.14024566775379421</v>
       </c>
       <c r="E14">
-        <v>0.15416941261184583</v>
+        <v>0.15610069363498902</v>
       </c>
     </row>
     <row r="15">
@@ -374,13 +374,13 @@
         <v>0.26019542089581915</v>
       </c>
       <c r="C15">
-        <v>0.0046086813680063553</v>
+        <v>0.0046978060172384655</v>
       </c>
       <c r="D15">
-        <v>0.25116252789631655</v>
+        <v>0.25098784595242679</v>
       </c>
       <c r="E15">
-        <v>0.26922831389532176</v>
+        <v>0.26940299583921151</v>
       </c>
     </row>
     <row r="16">
@@ -391,13 +391,13 @@
         <v>0.04035111164849578</v>
       </c>
       <c r="C16">
-        <v>0.0033548757451713064</v>
+        <v>0.0035378334430600008</v>
       </c>
       <c r="D16">
-        <v>0.033775647859079078</v>
+        <v>0.033417055825024258</v>
       </c>
       <c r="E16">
-        <v>0.046926575437912482</v>
+        <v>0.047285167471967302</v>
       </c>
     </row>
     <row r="17">
@@ -408,13 +408,13 @@
         <v>0.20751214546806321</v>
       </c>
       <c r="C17">
-        <v>0.0047537283151065351</v>
+        <v>0.0056424034652907303</v>
       </c>
       <c r="D17">
-        <v>0.1981949643070583</v>
+        <v>0.19645318463041225</v>
       </c>
       <c r="E17">
-        <v>0.21682932662906812</v>
+        <v>0.21857110630571416</v>
       </c>
     </row>
     <row r="18">
@@ -425,13 +425,13 @@
         <v>-0.056817622531135314</v>
       </c>
       <c r="C18">
-        <v>0.0041382181586977962</v>
+        <v>0.0043417201715328169</v>
       </c>
       <c r="D18">
-        <v>-0.064928415812939733</v>
+        <v>-0.065327274136797495</v>
       </c>
       <c r="E18">
-        <v>-0.048706829249330896</v>
+        <v>-0.048307970925473127</v>
       </c>
     </row>
     <row r="19">
@@ -442,13 +442,13 @@
         <v>0.10028486417795784</v>
       </c>
       <c r="C19">
-        <v>0.0055130845083544633</v>
+        <v>0.0052339738762650573</v>
       </c>
       <c r="D19">
-        <v>0.089479365059080024</v>
+        <v>0.090026414480241845</v>
       </c>
       <c r="E19">
-        <v>0.11109036329683566</v>
+        <v>0.11054331387567384</v>
       </c>
     </row>
   </sheetData>
